--- a/temp/ReporteInforme.xlsx
+++ b/temp/ReporteInforme.xlsx
@@ -28,25 +28,31 @@
     <t>Nro Reporte:</t>
   </si>
   <si>
-    <t>150-2020/AT/FS</t>
+    <t>057-2020/AT/FS</t>
   </si>
   <si>
     <t>Fecha auditoria:</t>
   </si>
   <si>
-    <t>2020-08-31</t>
+    <t>2020-10-14</t>
   </si>
   <si>
     <t>Auditor:</t>
   </si>
   <si>
-    <t>ROSA MARIA OCAMPO</t>
+    <t>MARCO AYALA</t>
   </si>
   <si>
     <t>Sede auditada:</t>
   </si>
   <si>
-    <t>ALMACÉN CALLAO</t>
+    <t>MOLINO FAUCETT</t>
+  </si>
+  <si>
+    <t>Area o zona:</t>
+  </si>
+  <si>
+    <t>OFICINA</t>
   </si>
   <si>
     <t>Auditorías Previas</t>
@@ -118,7 +124,7 @@
     <t>CONCLUSIÓN:</t>
   </si>
   <si>
-    <t>NECESIDAD DE MEJORAR EL SISTEMA</t>
+    <t>5S 100% IMPLANTADAS</t>
   </si>
   <si>
     <t>N°</t>
@@ -136,48 +142,57 @@
     <t>Se tiene un procedimiento para retirar objetos innecesarios</t>
   </si>
   <si>
+    <t>NO CUMPLE</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>No hay materiales almacenados en exceso en el área de trabajo (detallar palets, señaletica, producto no conforme, producto recuperado, etc)</t>
+  </si>
+  <si>
+    <t>erftgyh hgfr</t>
+  </si>
+  <si>
+    <t>No existen máquinas, herramientas, equipos, utiles o similares que se encuentren en mal estado en el área de trabajo</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>No están los pasillos, canales, muelles, puertas, o áreas de trabajo obstaculizadas</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>No se tiene documentación obsoleta en el área de trabajo</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Los elementos de limpieza: trapos, escobas, guantes, etc se encuentran en buen estado</t>
+  </si>
+  <si>
+    <t>yyy</t>
+  </si>
+  <si>
+    <t>No se tiene mobiliario innecesario (mesas, estantes, armarios y los materiales dentro de estas) para realizar actividades dentro del área de trabajo</t>
+  </si>
+  <si>
+    <t>HALLAZAGO</t>
+  </si>
+  <si>
+    <t>Existe un área delimitada de innecesarios debidamente identificada</t>
+  </si>
+  <si>
     <t>CUMPLE</t>
   </si>
   <si>
-    <t>No hay materiales almacenados en exceso en el área de trabajo (detallar palets, señaletica, producto no conforme, producto recuperado, etc)</t>
-  </si>
-  <si>
-    <t>No existen máquinas, herramientas, equipos, utiles o similares que se encuentren en mal estado en el área de trabajo</t>
-  </si>
-  <si>
-    <t>NO CUMPLE</t>
-  </si>
-  <si>
-    <t>observacion</t>
-  </si>
-  <si>
-    <t>No están los pasillos, canales, muelles, puertas, o áreas de trabajo obstaculizadas</t>
-  </si>
-  <si>
-    <t>No se tiene documentación obsoleta en el área de trabajo</t>
-  </si>
-  <si>
-    <t>ddddd</t>
-  </si>
-  <si>
-    <t>Los elementos de limpieza: trapos, escobas, guantes, etc se encuentran en buen estado</t>
-  </si>
-  <si>
-    <t>No se tiene mobiliario innecesario (mesas, estantes, armarios y los materiales dentro de estas) para realizar actividades dentro del área de trabajo</t>
-  </si>
-  <si>
-    <t>Existe un área delimitada de innecesarios debidamente identificada</t>
-  </si>
-  <si>
-    <t>ddd</t>
-  </si>
-  <si>
     <t>No existen equipos inutilizados, herramientas, utiles o similares en el área</t>
   </si>
   <si>
-    <t>dd</t>
-  </si>
-  <si>
     <t>Los elementos obsoletos, innecesarios, inutilizados se encuentran identificados como tal</t>
   </si>
   <si>
@@ -202,21 +217,18 @@
     <t>Estan claramente definidos, delimitados y enumerados los pasillos, canales, puertas, muelles y estacionamientos camiones</t>
   </si>
   <si>
+    <t>wewewew ew wew</t>
+  </si>
+  <si>
     <t>Las herramientas, utiles, equipos de medición que se usan en la operación se encuentran identificados y ordenados</t>
   </si>
   <si>
     <t>Se tiene un lugar de estacionamiento destinado para los equipos de manipuleo</t>
   </si>
   <si>
-    <t>dcvf</t>
-  </si>
-  <si>
     <t>Las paletas y bines se encuentran dentro su zona asignada de forma adecuada</t>
   </si>
   <si>
-    <t>sdssd</t>
-  </si>
-  <si>
     <t>Los desechos de la operación se almacenan en tachos / contenedores identificados con codigos de colores y se encuentran debidamente identificados y delimitados</t>
   </si>
   <si>
@@ -253,37 +265,34 @@
     <t>Las tuberías (red contra incendios, red interna, sistema eléctrico, etc) se encuentran en en buen estado y limpias</t>
   </si>
   <si>
-    <t>dse</t>
-  </si>
-  <si>
     <t>Los sistemas de drenaje, canaletas para lluvias, sistemas de ventilación se encuentran operativas, limpias y sin obstrucción</t>
   </si>
   <si>
     <t>No hay luminarias defectuosas (total o parcialmente)</t>
   </si>
   <si>
-    <t>dsdsd</t>
-  </si>
-  <si>
     <t>Se mantienen las paredes, suelo, techos limpios y libres de residuos</t>
   </si>
   <si>
-    <t xml:space="preserve">ssss ddsds </t>
-  </si>
-  <si>
     <t>El personal operario se encuentra correctamente aseado</t>
   </si>
   <si>
+    <t>dsfedfd sds dsds sdsd</t>
+  </si>
+  <si>
     <t>Se realiza periodicamente tareas de limpieza no rutinarias conjuntamente con el plan de mantenimiento del CD</t>
   </si>
   <si>
+    <t>wsderfgtyh</t>
+  </si>
+  <si>
     <t>Existe una persona o equipo de personas responsable de supervisar las operaciones de limpieza</t>
   </si>
   <si>
     <t>El personal de almacén asegura la limpieza de las zonas con productos derramados</t>
   </si>
   <si>
-    <t>Tercera S NO OK</t>
+    <t>Tercera S OK</t>
   </si>
   <si>
     <t>"Eliminar anomalías evidentes con controles visuales"</t>
@@ -304,9 +313,6 @@
     <t>No hay algún problema con respecto a ruido, vibraciones o de temperatura (calor / frío)</t>
   </si>
   <si>
-    <t>sdew</t>
-  </si>
-  <si>
     <t>No hay alguna ventana, puerta, rack dañado. En caso se observe daño, el mantenimiento está programado.</t>
   </si>
   <si>
@@ -355,9 +361,6 @@
     <t>Existen registros de control de condiciones de 5S en el CD</t>
   </si>
   <si>
-    <t>sder</t>
-  </si>
-  <si>
     <t>Está todo el personal capacitado y motivado para llevar a cabo los procedimientos estándar definidos</t>
   </si>
   <si>
@@ -365,9 +368,6 @@
   </si>
   <si>
     <t>El personal reporta condiciones 5S continuamente dentro del CD</t>
-  </si>
-  <si>
-    <t>sdsdssd</t>
   </si>
   <si>
     <t>Los desechos del CD se depositan en los tachos según estándar de colores</t>
@@ -384,13 +384,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="10"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -427,6 +427,15 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -505,16 +514,16 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -560,7 +569,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>S0!$C$12:$C$16</c:f>
+              <c:f>S0!$C$14:$C$18</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -583,23 +592,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>S0!$E$12:$E$16</c:f>
+              <c:f>S0!$E$14:$E$18</c:f>
               <c:numCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -680,13 +689,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1001,10 +1010,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1041,7 +1050,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" customHeight="1" ht="33.1"/>
+    <row r="2" spans="1:13" customHeight="1" ht="23.1"/>
     <row r="3" spans="1:13" customHeight="1" ht="23.1">
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -1083,104 +1092,69 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" customHeight="1" ht="23.1">
-      <c r="G10" t="s">
+    <row r="10" spans="1:13">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" customHeight="1" ht="23.1">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="B11" s="3" t="s">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:13" customHeight="1" ht="23.1">
+      <c r="G12" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3" t="s">
+    </row>
+    <row r="13" spans="1:13" customHeight="1" ht="33.1">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="3">
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H13" s="3">
         <v>2</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I13" s="3">
         <v>3</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J13" s="3">
         <v>4</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K13" s="3">
         <v>5</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L13" s="3">
         <v>6</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" customHeight="1" ht="33.1">
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="M13" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" customHeight="1" ht="33.1">
-      <c r="B13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:13" customHeight="1" ht="33.1">
       <c r="B14" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E14" s="4">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -1194,13 +1168,13 @@
     </row>
     <row r="15" spans="1:13" customHeight="1" ht="33.1">
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15" s="4">
         <v>9.0</v>
@@ -1217,13 +1191,13 @@
     </row>
     <row r="16" spans="1:13" customHeight="1" ht="33.1">
       <c r="B16" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E16" s="4">
         <v>8.0</v>
@@ -1239,38 +1213,84 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="D17" s="3" t="s">
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="B18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="4">
-        <v>38.0</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7">
+      <c r="D18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="D19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="C19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>32</v>
+    <row r="21" spans="1:13">
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="C22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="G12:M12"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1308,24 +1328,24 @@
   <sheetData>
     <row r="1" spans="1:4" customHeight="1" ht="45.1">
       <c r="A1" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" customHeight="1" ht="28.1">
+    <row r="2" spans="1:4" customHeight="1" ht="33.1">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" customHeight="1" ht="26.5">
@@ -1333,37 +1353,41 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:4" customHeight="1" ht="26.5">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:4" customHeight="1" ht="26.5">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" customHeight="1" ht="26.5">
@@ -1371,25 +1395,27 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="7" spans="1:4" customHeight="1" ht="26.5">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" customHeight="1" ht="26.5">
@@ -1397,79 +1423,79 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:4" customHeight="1" ht="26.5">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:4" customHeight="1" ht="26.5">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" customHeight="1" ht="26.5">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>51</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" customHeight="1" ht="26.5">
       <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" customHeight="1" ht="20.1">
       <c r="B13" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C13" s="4">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1516,24 +1542,24 @@
   <sheetData>
     <row r="1" spans="1:4" customHeight="1" ht="45.1">
       <c r="A1" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" customHeight="1" ht="28.1">
+    <row r="2" spans="1:4" customHeight="1" ht="33.1">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" customHeight="1" ht="26.5">
@@ -1541,22 +1567,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="4" spans="1:4" customHeight="1" ht="26.5">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -1565,38 +1593,34 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" customHeight="1" ht="26.5">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" customHeight="1" ht="26.5">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -1605,10 +1629,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -1617,10 +1641,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -1629,10 +1653,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D10" s="5"/>
     </row>
@@ -1641,10 +1665,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D11" s="5"/>
     </row>
@@ -1653,27 +1677,27 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" customHeight="1" ht="20.1">
       <c r="B13" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C13" s="4">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1720,24 +1744,24 @@
   <sheetData>
     <row r="1" spans="1:4" customHeight="1" ht="45.1">
       <c r="A1" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" customHeight="1" ht="28.1">
+    <row r="2" spans="1:4" customHeight="1" ht="33.1">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" customHeight="1" ht="26.5">
@@ -1745,10 +1769,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -1757,10 +1781,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -1769,24 +1793,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>77</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" customHeight="1" ht="26.5">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -1795,62 +1817,62 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>80</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" customHeight="1" ht="26.5">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>82</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" customHeight="1" ht="26.5">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:4" customHeight="1" ht="26.5">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="11" spans="1:4" customHeight="1" ht="26.5">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D11" s="5"/>
     </row>
@@ -1859,27 +1881,27 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" customHeight="1" ht="20.1">
       <c r="B13" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C13" s="4">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1926,24 +1948,24 @@
   <sheetData>
     <row r="1" spans="1:4" customHeight="1" ht="45.1">
       <c r="A1" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" customHeight="1" ht="28.1">
+    <row r="2" spans="1:4" customHeight="1" ht="33.1">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" customHeight="1" ht="26.5">
@@ -1951,10 +1973,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -1963,10 +1985,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -1975,24 +1997,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>94</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" customHeight="1" ht="26.5">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -2001,10 +2021,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -2013,10 +2033,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -2025,10 +2045,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -2037,10 +2057,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D10" s="5"/>
     </row>
@@ -2049,10 +2069,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D11" s="5"/>
     </row>
@@ -2061,27 +2081,27 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" customHeight="1" ht="20.1">
       <c r="B13" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C13" s="4">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2128,24 +2148,24 @@
   <sheetData>
     <row r="1" spans="1:4" customHeight="1" ht="45.1">
       <c r="A1" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" customHeight="1" ht="28.1">
+    <row r="2" spans="1:4" customHeight="1" ht="33.1">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4" customHeight="1" ht="26.5">
@@ -2153,10 +2173,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -2165,10 +2185,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -2177,10 +2197,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D5" s="5"/>
     </row>
@@ -2189,10 +2209,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -2201,24 +2221,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>111</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" customHeight="1" ht="26.5">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -2227,10 +2245,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -2239,14 +2257,12 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>115</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" customHeight="1" ht="26.5">
       <c r="A11" s="5">
@@ -2256,7 +2272,7 @@
         <v>116</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D11" s="5"/>
     </row>
@@ -2268,16 +2284,16 @@
         <v>117</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" customHeight="1" ht="20.1">
       <c r="B13" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C13" s="4">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>118</v>
@@ -2285,7 +2301,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>

--- a/temp/ReporteInforme.xlsx
+++ b/temp/ReporteInforme.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>5S Formulario de auditoría rutinaría</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Nro Reporte:</t>
   </si>
   <si>
-    <t>057-2020/AT/FS</t>
+    <t>058-2020/AT/FS</t>
   </si>
   <si>
     <t>Fecha auditoria:</t>
@@ -52,7 +52,7 @@
     <t>Area o zona:</t>
   </si>
   <si>
-    <t>OFICINA</t>
+    <t>ALMACEN</t>
   </si>
   <si>
     <t>Auditorías Previas</t>
@@ -145,51 +145,42 @@
     <t>NO CUMPLE</t>
   </si>
   <si>
-    <t>w</t>
+    <t>DERFGTYH</t>
   </si>
   <si>
     <t>No hay materiales almacenados en exceso en el área de trabajo (detallar palets, señaletica, producto no conforme, producto recuperado, etc)</t>
   </si>
   <si>
-    <t>erftgyh hgfr</t>
+    <t>jhyu</t>
   </si>
   <si>
     <t>No existen máquinas, herramientas, equipos, utiles o similares que se encuentren en mal estado en el área de trabajo</t>
   </si>
   <si>
-    <t>LL</t>
+    <t>ujuiikiujk</t>
   </si>
   <si>
     <t>No están los pasillos, canales, muelles, puertas, o áreas de trabajo obstaculizadas</t>
   </si>
   <si>
-    <t>K</t>
+    <t>fffff</t>
   </si>
   <si>
     <t>No se tiene documentación obsoleta en el área de trabajo</t>
   </si>
   <si>
-    <t>h</t>
+    <t>CUMPLE</t>
   </si>
   <si>
     <t>Los elementos de limpieza: trapos, escobas, guantes, etc se encuentran en buen estado</t>
   </si>
   <si>
-    <t>yyy</t>
-  </si>
-  <si>
     <t>No se tiene mobiliario innecesario (mesas, estantes, armarios y los materiales dentro de estas) para realizar actividades dentro del área de trabajo</t>
   </si>
   <si>
-    <t>HALLAZAGO</t>
-  </si>
-  <si>
     <t>Existe un área delimitada de innecesarios debidamente identificada</t>
   </si>
   <si>
-    <t>CUMPLE</t>
-  </si>
-  <si>
     <t>No existen equipos inutilizados, herramientas, utiles o similares en el área</t>
   </si>
   <si>
@@ -217,9 +208,6 @@
     <t>Estan claramente definidos, delimitados y enumerados los pasillos, canales, puertas, muelles y estacionamientos camiones</t>
   </si>
   <si>
-    <t>wewewew ew wew</t>
-  </si>
-  <si>
     <t>Las herramientas, utiles, equipos de medición que se usan en la operación se encuentran identificados y ordenados</t>
   </si>
   <si>
@@ -277,15 +265,9 @@
     <t>El personal operario se encuentra correctamente aseado</t>
   </si>
   <si>
-    <t>dsfedfd sds dsds sdsd</t>
-  </si>
-  <si>
     <t>Se realiza periodicamente tareas de limpieza no rutinarias conjuntamente con el plan de mantenimiento del CD</t>
   </si>
   <si>
-    <t>wsderfgtyh</t>
-  </si>
-  <si>
     <t>Existe una persona o equipo de personas responsable de supervisar las operaciones de limpieza</t>
   </si>
   <si>
@@ -356,6 +338,9 @@
   </si>
   <si>
     <t xml:space="preserve">¿La jefatura y gerencia del CD controlan de manera semanal el estado de las 5S </t>
+  </si>
+  <si>
+    <t>kjnhb</t>
   </si>
   <si>
     <t>Existen registros de control de condiciones de 5S en el CD</t>
@@ -596,19 +581,19 @@
               <c:numCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1154,7 +1139,7 @@
         <v>19</v>
       </c>
       <c r="E14" s="4">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -1177,7 +1162,7 @@
         <v>22</v>
       </c>
       <c r="E15" s="4">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -1200,7 +1185,7 @@
         <v>25</v>
       </c>
       <c r="E16" s="4">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1246,7 +1231,7 @@
         <v>31</v>
       </c>
       <c r="E18" s="4">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1263,7 +1248,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="4">
-        <v>40.0</v>
+        <v>45.0</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -1412,11 +1397,9 @@
         <v>48</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" customHeight="1" ht="26.5">
       <c r="A8" s="5">
@@ -1426,35 +1409,31 @@
         <v>50</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>51</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" customHeight="1" ht="26.5">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>53</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" customHeight="1" ht="26.5">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D10" s="5"/>
     </row>
@@ -1463,10 +1442,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D11" s="5"/>
     </row>
@@ -1475,27 +1454,27 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" customHeight="1" ht="20.1">
       <c r="B13" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" s="4">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1553,13 +1532,13 @@
         <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" customHeight="1" ht="26.5">
@@ -1567,24 +1546,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>65</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" customHeight="1" ht="26.5">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -1593,10 +1570,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D5" s="5"/>
     </row>
@@ -1605,10 +1582,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -1617,10 +1594,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -1629,10 +1606,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -1641,10 +1618,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -1653,10 +1630,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D10" s="5"/>
     </row>
@@ -1665,10 +1642,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D11" s="5"/>
     </row>
@@ -1677,27 +1654,27 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" customHeight="1" ht="20.1">
       <c r="B13" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" s="4">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1755,13 +1732,13 @@
         <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" customHeight="1" ht="26.5">
@@ -1769,10 +1746,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -1781,10 +1758,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -1793,10 +1770,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D5" s="5"/>
     </row>
@@ -1805,10 +1782,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -1817,10 +1794,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -1829,10 +1806,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -1841,38 +1818,34 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>85</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" customHeight="1" ht="26.5">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>87</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" customHeight="1" ht="26.5">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D11" s="5"/>
     </row>
@@ -1881,27 +1854,27 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" customHeight="1" ht="20.1">
       <c r="B13" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" s="4">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1948,7 +1921,7 @@
   <sheetData>
     <row r="1" spans="1:4" customHeight="1" ht="45.1">
       <c r="A1" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1959,13 +1932,13 @@
         <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" customHeight="1" ht="26.5">
@@ -1973,10 +1946,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -1985,10 +1958,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -1997,10 +1970,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D5" s="5"/>
     </row>
@@ -2009,10 +1982,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -2021,10 +1994,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -2033,10 +2006,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -2045,10 +2018,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -2057,10 +2030,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D10" s="5"/>
     </row>
@@ -2069,10 +2042,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D11" s="5"/>
     </row>
@@ -2081,27 +2054,27 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" customHeight="1" ht="20.1">
       <c r="B13" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" s="4">
         <v>10.0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2148,7 +2121,7 @@
   <sheetData>
     <row r="1" spans="1:4" customHeight="1" ht="45.1">
       <c r="A1" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -2159,13 +2132,13 @@
         <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4" customHeight="1" ht="26.5">
@@ -2173,10 +2146,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -2185,10 +2158,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -2197,10 +2170,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D5" s="5"/>
     </row>
@@ -2209,22 +2182,24 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="7" spans="1:4" customHeight="1" ht="26.5">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -2233,10 +2208,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -2245,10 +2220,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -2257,10 +2232,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D10" s="5"/>
     </row>
@@ -2269,10 +2244,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D11" s="5"/>
     </row>
@@ -2281,27 +2256,27 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" customHeight="1" ht="20.1">
       <c r="B13" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" s="4">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
